--- a/national/indyref/UK General Election Results without Scotland.xlsx
+++ b/national/indyref/UK General Election Results without Scotland.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>Con</t>
   </si>
@@ -39,7 +39,19 @@
     <t>Scotland</t>
   </si>
   <si>
-    <t>Rest of UK</t>
+    <t>Gov Maj</t>
+  </si>
+  <si>
+    <t>Gov</t>
+  </si>
+  <si>
+    <t>Con+LD</t>
+  </si>
+  <si>
+    <t>Opp</t>
+  </si>
+  <si>
+    <t>UK without Scotland</t>
   </si>
 </sst>
 </file>
@@ -89,6 +101,754 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Con</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$24:$B$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$24:$B$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lib Dem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$24:$B$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$24:$B$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="119865728"/>
+        <c:axId val="119867264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="119865728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119867264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119867264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119865728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,23 +1138,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -410,343 +1170,990 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1979</v>
+      </c>
+      <c r="B3">
+        <v>635</v>
+      </c>
+      <c r="C3">
+        <v>339</v>
+      </c>
+      <c r="D3">
+        <v>269</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">B3-SUM(C3:E3)</f>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>C3-SUM(D3:F3)</f>
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <f>B3-B14</f>
+        <v>564</v>
+      </c>
+      <c r="K3">
+        <f>C3-C14</f>
+        <v>317</v>
+      </c>
+      <c r="L3">
+        <f>D3-D14</f>
+        <v>225</v>
+      </c>
+      <c r="M3">
+        <f>E3-E14</f>
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <f>F3-F14</f>
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>K3-SUM(L3:N3)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1983</v>
+      </c>
+      <c r="B4">
+        <v>650</v>
+      </c>
+      <c r="C4">
+        <v>397</v>
+      </c>
+      <c r="D4">
+        <v>209</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>C4-SUM(D4:F4)</f>
+        <v>144</v>
+      </c>
+      <c r="J4">
+        <f>B4-B15</f>
+        <v>578</v>
+      </c>
+      <c r="K4">
+        <f>C4-C15</f>
+        <v>376</v>
+      </c>
+      <c r="L4">
+        <f>D4-D15</f>
+        <v>168</v>
+      </c>
+      <c r="M4">
+        <f>E4-E15</f>
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <f>F4-F15</f>
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>K4-SUM(L4:N4)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1987</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>650</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>376</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>229</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>22</v>
       </c>
-      <c r="F3">
-        <f>B3-SUM(C3:E3)</f>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M3">
-        <f>SUM(I3:L3)</f>
+      <c r="G5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H5">
+        <f>C5-SUM(D5:F5)</f>
+        <v>102</v>
+      </c>
+      <c r="J5">
+        <f>B5-B16</f>
+        <v>578</v>
+      </c>
+      <c r="K5">
+        <f>C5-C16</f>
+        <v>366</v>
+      </c>
+      <c r="L5">
+        <f>D5-D16</f>
+        <v>179</v>
+      </c>
+      <c r="M5">
+        <f>E5-E16</f>
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <f>F5-F16</f>
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>K5-SUM(L5:N5)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1992</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>651</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>336</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>271</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="F4">
-        <f>B4-SUM(C4:E4)</f>
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M4">
-        <f>SUM(I4:L4)</f>
+      <c r="G6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="H6">
+        <f>C6-SUM(D6:F6)</f>
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <f>B6-B17</f>
+        <v>579</v>
+      </c>
+      <c r="K6">
+        <f>C6-C17</f>
+        <v>325</v>
+      </c>
+      <c r="L6">
+        <f>D6-D17</f>
+        <v>222</v>
+      </c>
+      <c r="M6">
+        <f>E6-E17</f>
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <f>F6-F17</f>
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>K6-SUM(L6:N6)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1997</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>659</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>165</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>418</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>46</v>
       </c>
-      <c r="F5">
-        <f>B5-SUM(C5:E5)</f>
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M5">
-        <f>SUM(I5:L5)</f>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>D7-(C7+E7+F7)</f>
+        <v>177</v>
+      </c>
+      <c r="J7">
+        <f>B7-B18</f>
+        <v>587</v>
+      </c>
+      <c r="K7">
+        <f>C7-C18</f>
+        <v>165</v>
+      </c>
+      <c r="L7">
+        <f>D7-D18</f>
+        <v>362</v>
+      </c>
+      <c r="M7">
+        <f>E7-E18</f>
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <f>F7-F18</f>
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>L7-(K7+M7+N7)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>659</v>
+      </c>
+      <c r="C8">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>413</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>D8-(C8+E8+F8)</f>
+        <v>167</v>
+      </c>
+      <c r="J8">
+        <f>B8-B19</f>
+        <v>588</v>
+      </c>
+      <c r="K8">
+        <f>C8-C19</f>
+        <v>165</v>
+      </c>
+      <c r="L8">
+        <f>D8-D19</f>
+        <v>358</v>
+      </c>
+      <c r="M8">
+        <f>E8-E19</f>
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <f>F8-F19</f>
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>L8-(K8+M8+N8)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>646</v>
+      </c>
+      <c r="C9">
+        <v>198</v>
+      </c>
+      <c r="D9">
+        <v>355</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>D9-(C9+E9+F9)</f>
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <f>B9-B20</f>
+        <v>587</v>
+      </c>
+      <c r="K9">
+        <f>C9-C20</f>
+        <v>197</v>
+      </c>
+      <c r="L9">
+        <f>D9-D20</f>
+        <v>314</v>
+      </c>
+      <c r="M9">
+        <f>E9-E20</f>
+        <v>51</v>
+      </c>
+      <c r="N9">
+        <f>F9-F20</f>
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>L9-(K9+M9+N9)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10">
+        <v>650</v>
+      </c>
+      <c r="C10">
+        <v>306</v>
+      </c>
+      <c r="D10">
+        <v>258</v>
+      </c>
+      <c r="E10">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f>C10+E10-(D10+F10)</f>
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <f>B10-B21</f>
+        <v>591</v>
+      </c>
+      <c r="K10">
+        <f>C10-C21</f>
+        <v>305</v>
+      </c>
+      <c r="L10">
+        <f>D10-D21</f>
+        <v>217</v>
+      </c>
+      <c r="M10">
+        <f>E10-E21</f>
+        <v>46</v>
+      </c>
+      <c r="N10">
+        <f>F10-F21</f>
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="P10">
+        <f>K10-SUM(L10:N10)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1979</v>
+      </c>
+      <c r="B14">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G21" si="1">SUM(C14:F14)</f>
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <f>C14-SUM(D14:F14)</f>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1982</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <f>C15-SUM(D15:F15)</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1987</v>
+      </c>
+      <c r="B16">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <f>C16-SUM(D16:F16)</f>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1992</v>
+      </c>
+      <c r="B17">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <f>C17-SUM(D17:F17)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1997</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <f>D18-(C18+E18+F18)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2001</v>
       </c>
-      <c r="B6">
-        <v>659</v>
-      </c>
-      <c r="C6">
+      <c r="B19">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <f>D19-(C19+E19+F19)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+      <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <f>D20-(C20+E20+F20)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H21">
+        <f>C21+E21-(D21+F21)</f>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1979</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f>C3</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1979</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <f>D3</f>
+        <v>269</v>
+      </c>
+      <c r="E25">
+        <f>E3</f>
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <f>F3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1983</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>C4</f>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1983</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f>D4</f>
+        <v>209</v>
+      </c>
+      <c r="E28">
+        <f>E4</f>
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <f>F4</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1987</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f>C5</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1987</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <f>D5</f>
+        <v>229</v>
+      </c>
+      <c r="E31">
+        <f>E5</f>
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <f>F5</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1992</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <f>C6</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1992</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <f>D6</f>
+        <v>271</v>
+      </c>
+      <c r="E34">
+        <f>E6</f>
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <f>F6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1997</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <f>D7</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1997</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f>C7</f>
+        <v>165</v>
+      </c>
+      <c r="E37">
+        <f>E7</f>
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <f>F7</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <f>D8</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f>C8</f>
         <v>166</v>
       </c>
-      <c r="D6">
-        <v>413</v>
-      </c>
-      <c r="E6">
+      <c r="E40">
+        <f>E8</f>
         <v>52</v>
       </c>
-      <c r="F6">
-        <f>B6-SUM(C6:E6)</f>
+      <c r="F40">
+        <f>F8</f>
         <v>28</v>
       </c>
-      <c r="H6">
-        <v>72</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>56</v>
-      </c>
-      <c r="K6">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2005</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f>D9</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2005</v>
+      </c>
+      <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <f>SUM(I6:L6)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2005</v>
-      </c>
-      <c r="B7">
-        <v>646</v>
-      </c>
-      <c r="C7">
+      <c r="C43">
+        <f>C9</f>
         <v>198</v>
       </c>
-      <c r="D7">
-        <v>355</v>
-      </c>
-      <c r="E7">
+      <c r="E43">
+        <f>E9</f>
         <v>62</v>
       </c>
-      <c r="F7">
-        <f>B7-SUM(C7:E7)</f>
+      <c r="F43">
+        <f>F9</f>
         <v>31</v>
       </c>
-      <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <f>SUM(I7:L7)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>2010</v>
       </c>
-      <c r="B8">
-        <v>650</v>
-      </c>
-      <c r="C8">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <f>C10</f>
         <v>306</v>
       </c>
-      <c r="D8">
+      <c r="E45">
+        <f>E10</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2010</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f>D10</f>
         <v>258</v>
       </c>
-      <c r="E8">
-        <v>57</v>
-      </c>
-      <c r="F8">
-        <f>B8-SUM(C8:E8)</f>
+      <c r="F46">
+        <f>F10</f>
         <v>29</v>
-      </c>
-      <c r="H8">
-        <v>59</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <f>SUM(I8:L8)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1987</v>
-      </c>
-      <c r="B12">
-        <f>B3-H3</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1992</v>
-      </c>
-      <c r="B13">
-        <f>B4-H4</f>
-        <v>651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1997</v>
-      </c>
-      <c r="B14">
-        <f>B5-H5</f>
-        <v>659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2001</v>
-      </c>
-      <c r="B15">
-        <f>B6-H6</f>
-        <v>587</v>
-      </c>
-      <c r="C15">
-        <f>C6-I6</f>
-        <v>166</v>
-      </c>
-      <c r="D15">
-        <f>D6-J6</f>
-        <v>357</v>
-      </c>
-      <c r="E15">
-        <f>E6-K6</f>
-        <v>42</v>
-      </c>
-      <c r="F15">
-        <f>F6-L6</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2005</v>
-      </c>
-      <c r="B16">
-        <f>B7-H7</f>
-        <v>587</v>
-      </c>
-      <c r="C16">
-        <f>C7-I7</f>
-        <v>197</v>
-      </c>
-      <c r="D16">
-        <f>D7-J7</f>
-        <v>314</v>
-      </c>
-      <c r="E16">
-        <f>E7-K7</f>
-        <v>51</v>
-      </c>
-      <c r="F16">
-        <f>F7-L7</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2010</v>
-      </c>
-      <c r="B17">
-        <f>B8-H8</f>
-        <v>591</v>
-      </c>
-      <c r="C17">
-        <f>C8-I8</f>
-        <v>305</v>
-      </c>
-      <c r="D17">
-        <f>D8-J8</f>
-        <v>217</v>
-      </c>
-      <c r="E17">
-        <f>E8-K8</f>
-        <v>46</v>
-      </c>
-      <c r="F17">
-        <f>F8-L8</f>
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/national/indyref/UK General Election Results without Scotland.xlsx
+++ b/national/indyref/UK General Election Results without Scotland.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
   <si>
     <t>Con</t>
   </si>
@@ -452,6 +452,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
@@ -609,6 +614,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
@@ -760,22 +772,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="119865728"/>
-        <c:axId val="119867264"/>
+        <c:axId val="137590272"/>
+        <c:axId val="137591808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119865728"/>
+        <c:axId val="137590272"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119867264"/>
+        <c:crossAx val="137591808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,24 +795,751 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119867264"/>
+        <c:axId val="137591808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119865728"/>
+        <c:crossAx val="137590272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Con</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$I$24:$J$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$I$24:$J$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$24:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lib Dem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$I$24:$J$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$24:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$I$24:$J$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Gov</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Opp</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$24:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="20"/>
+        <c:overlap val="100"/>
+        <c:axId val="40996864"/>
+        <c:axId val="40998400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40996864"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40998400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40998400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40996864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -821,15 +1560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -843,6 +1582,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1140,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,23 +1989,23 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <f>B3-B14</f>
+        <f t="shared" ref="J3:N10" si="1">B3-B14</f>
         <v>564</v>
       </c>
       <c r="K3">
-        <f>C3-C14</f>
+        <f t="shared" si="1"/>
         <v>317</v>
       </c>
       <c r="L3">
-        <f>D3-D14</f>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="M3">
-        <f>E3-E14</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N3">
-        <f>F3-F14</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O3" t="s">
@@ -1275,23 +2044,23 @@
         <v>144</v>
       </c>
       <c r="J4">
-        <f>B4-B15</f>
+        <f t="shared" si="1"/>
         <v>578</v>
       </c>
       <c r="K4">
-        <f>C4-C15</f>
+        <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="L4">
-        <f>D4-D15</f>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="M4">
-        <f>E4-E15</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="N4">
-        <f>F4-F15</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="O4" t="s">
@@ -1330,23 +2099,23 @@
         <v>102</v>
       </c>
       <c r="J5">
-        <f>B5-B16</f>
+        <f t="shared" si="1"/>
         <v>578</v>
       </c>
       <c r="K5">
-        <f>C5-C16</f>
+        <f t="shared" si="1"/>
         <v>366</v>
       </c>
       <c r="L5">
-        <f>D5-D16</f>
+        <f t="shared" si="1"/>
         <v>179</v>
       </c>
       <c r="M5">
-        <f>E5-E16</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N5">
-        <f>F5-F16</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="O5" t="s">
@@ -1385,23 +2154,23 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <f>B6-B17</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="K6">
-        <f>C6-C17</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="L6">
-        <f>D6-D17</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="M6">
-        <f>E6-E17</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N6">
-        <f>F6-F17</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="O6" t="s">
@@ -1440,23 +2209,23 @@
         <v>177</v>
       </c>
       <c r="J7">
-        <f>B7-B18</f>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="K7">
-        <f>C7-C18</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="L7">
-        <f>D7-D18</f>
+        <f t="shared" si="1"/>
         <v>362</v>
       </c>
       <c r="M7">
-        <f>E7-E18</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="N7">
-        <f>F7-F18</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="O7" t="s">
@@ -1495,23 +2264,23 @@
         <v>167</v>
       </c>
       <c r="J8">
-        <f>B8-B19</f>
+        <f t="shared" si="1"/>
         <v>588</v>
       </c>
       <c r="K8">
-        <f>C8-C19</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="L8">
-        <f>D8-D19</f>
+        <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="M8">
-        <f>E8-E19</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="N8">
-        <f>F8-F19</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="O8" t="s">
@@ -1550,23 +2319,23 @@
         <v>64</v>
       </c>
       <c r="J9">
-        <f>B9-B20</f>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="K9">
-        <f>C9-C20</f>
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
       <c r="L9">
-        <f>D9-D20</f>
+        <f t="shared" si="1"/>
         <v>314</v>
       </c>
       <c r="M9">
-        <f>E9-E20</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="N9">
-        <f>F9-F20</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O9" t="s">
@@ -1605,23 +2374,23 @@
         <v>76</v>
       </c>
       <c r="J10">
-        <f>B10-B21</f>
+        <f t="shared" si="1"/>
         <v>591</v>
       </c>
       <c r="K10">
-        <f>C10-C21</f>
+        <f t="shared" si="1"/>
         <v>305</v>
       </c>
       <c r="L10">
-        <f>D10-D21</f>
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="M10">
-        <f>E10-E21</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="N10">
-        <f>F10-F21</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="O10" t="s">
@@ -1677,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G21" si="1">SUM(C14:F14)</f>
+        <f t="shared" ref="G14:G21" si="2">SUM(C14:F14)</f>
         <v>71</v>
       </c>
       <c r="H14">
@@ -1705,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="H15">
@@ -1733,7 +2502,7 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="H16">
@@ -1741,7 +2510,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1761,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="H17">
@@ -1769,7 +2538,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1997</v>
       </c>
@@ -1789,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="H18">
@@ -1797,7 +2566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -1817,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="H19">
@@ -1825,7 +2594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -1845,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H20">
@@ -1853,7 +2622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -1873,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H21">
@@ -1881,7 +2650,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -1894,8 +2663,20 @@
       <c r="F23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1979</v>
       </c>
@@ -1906,8 +2687,18 @@
         <f>C3</f>
         <v>339</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1979</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f>K3</f>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1979</v>
       </c>
@@ -1926,8 +2717,26 @@
         <f>F3</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1979</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <f>L3</f>
+        <v>225</v>
+      </c>
+      <c r="M25">
+        <f>M3</f>
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <f>N3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1983</v>
       </c>
@@ -1938,8 +2747,18 @@
         <f>C4</f>
         <v>397</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1983</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <f>K4</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1983</v>
       </c>
@@ -1958,8 +2777,26 @@
         <f>F4</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>1983</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <f>L4</f>
+        <v>168</v>
+      </c>
+      <c r="M28">
+        <f>M4</f>
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <f>N4</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1987</v>
       </c>
@@ -1970,8 +2807,18 @@
         <f>C5</f>
         <v>376</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1987</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <f>K5</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1987</v>
       </c>
@@ -1990,8 +2837,26 @@
         <f>F5</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1987</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <f>L5</f>
+        <v>179</v>
+      </c>
+      <c r="M31">
+        <f>M5</f>
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <f>N5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1992</v>
       </c>
@@ -2002,8 +2867,18 @@
         <f>C6</f>
         <v>336</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>1992</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <f>K6</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1992</v>
       </c>
@@ -2022,8 +2897,26 @@
         <f>F6</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>1992</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <f>L6</f>
+        <v>222</v>
+      </c>
+      <c r="M34">
+        <f>M6</f>
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <f>N6</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1997</v>
       </c>
@@ -2034,8 +2927,18 @@
         <f>D7</f>
         <v>418</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>1997</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <f>L7</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1997</v>
       </c>
@@ -2054,8 +2957,26 @@
         <f>F7</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>1997</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <f>K7</f>
+        <v>165</v>
+      </c>
+      <c r="M37">
+        <f>M7</f>
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <f>N7</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2001</v>
       </c>
@@ -2066,8 +2987,18 @@
         <f>D8</f>
         <v>413</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>2001</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <f>L8</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -2086,8 +3017,26 @@
         <f>F8</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>2001</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <f>K8</f>
+        <v>165</v>
+      </c>
+      <c r="M40">
+        <f>M8</f>
+        <v>42</v>
+      </c>
+      <c r="N40">
+        <f>N8</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2005</v>
       </c>
@@ -2098,8 +3047,18 @@
         <f>D9</f>
         <v>355</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>2005</v>
+      </c>
+      <c r="J42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <f>L9</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2005</v>
       </c>
@@ -2118,8 +3077,26 @@
         <f>F9</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>2005</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <f>K9</f>
+        <v>197</v>
+      </c>
+      <c r="M43">
+        <f>M9</f>
+        <v>51</v>
+      </c>
+      <c r="N43">
+        <f>N9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -2134,8 +3111,18 @@
         <f>E10</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>2010</v>
+      </c>
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <f>K10</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -2149,6 +3136,23 @@
       <c r="F46">
         <f>F10</f>
         <v>29</v>
+      </c>
+      <c r="I46">
+        <v>2010</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <f>L10</f>
+        <v>217</v>
+      </c>
+      <c r="M46">
+        <v>46</v>
+      </c>
+      <c r="N46">
+        <f>N10</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
